--- a/public/excel.xlsx
+++ b/public/excel.xlsx
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Nombre y Apellido</t>
   </si>
   <si>
+    <t xml:space="preserve">C.I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fecha</t>
   </si>
   <si>
@@ -38,22 +41,28 @@
     <t xml:space="preserve">Hora de salida</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriel Paez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 de junio de 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:39 p.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:40 p.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Dun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Doe</t>
+    <t xml:space="preserve">Daniel Dun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30260351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 de julio de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20555111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:43</t>
   </si>
 </sst>
 </file>
@@ -391,47 +400,42 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel.xlsx
+++ b/public/excel.xlsx
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Nombre y Apellido</t>
   </si>
   <si>
+    <t xml:space="preserve">C.I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fecha</t>
   </si>
   <si>
@@ -38,22 +41,37 @@
     <t xml:space="preserve">Hora de salida</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriel Paez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 de junio de 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:39 p.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:40 p.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Dun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Doe</t>
+    <t xml:space="preserve">Injustificada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Dun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30260351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 de julio de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:40 p. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:44 p. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:43 p. m.</t>
   </si>
 </sst>
 </file>
@@ -391,47 +409,56 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel.xlsx
+++ b/public/excel.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">Hora de salida</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabriel Paez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 de junio de 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:39 p.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:40 p.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Dun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Doe</t>
+    <t xml:space="preserve">Daniel Dun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 de julio de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:43</t>
   </si>
 </sst>
 </file>
@@ -414,23 +414,9 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
